--- a/doc_professor/avaluacio/Plantilla avaluació x persona.xlsx
+++ b/doc_professor/avaluacio/Plantilla avaluació x persona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sofia\Git\1DAW_ED_smarti\doc_professor\avaluacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35CEB9-FC87-4B79-9E81-596EBFC89DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED556C42-F743-492C-BEE9-D50406FF1149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3180" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MÒDUL" sheetId="2" r:id="rId1"/>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -825,70 +825,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,20 +840,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,58 +862,120 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1401,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BBF057-82A9-4170-B78F-EC8F4341D5FA}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1416,17 +1407,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
+      <c r="A2" s="58">
         <f>H16</f>
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="59"/>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1438,8 +1429,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
@@ -1451,8 +1442,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
@@ -1464,8 +1455,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
@@ -1477,37 +1468,37 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="38" t="e" vm="4">
+      <c r="F6" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H16,G3:G5,H3:H5,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1516,14 +1507,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="8">
         <v>0.1</v>
       </c>
@@ -1533,14 +1524,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="8">
         <v>0.15</v>
       </c>
@@ -1550,14 +1541,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="8">
         <v>0.2</v>
       </c>
@@ -1567,14 +1558,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="8">
         <v>0.15</v>
       </c>
@@ -1584,14 +1575,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="8">
         <f>'RA-5'!C$8</f>
         <v>0.2</v>
@@ -1602,14 +1593,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="8">
         <v>0.2</v>
       </c>
@@ -1667,52 +1658,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="67">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <f>I17*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="48"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1722,17 +1711,12 @@
       <c r="H4" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="48"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1742,17 +1726,15 @@
       <c r="H5" s="20" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="48"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
@@ -1762,26 +1744,22 @@
       <c r="H6" s="20" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="48"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="38" t="e" vm="4">
+      <c r="F7" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H17,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="48"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -1790,41 +1768,41 @@
       <c r="C8" s="13">
         <v>0.1</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="50" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="J8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1851,15 +1829,15 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="81">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="51">
         <v>0.15</v>
       </c>
       <c r="H11" s="22">
@@ -1867,141 +1845,141 @@
         <v>0</v>
       </c>
       <c r="I11" s="22">
-        <f>IFERROR(IF(SUM(J11:M11)/COUNT(J11:M11)&gt;=10,1,(SUM(J11:M11)/COUNT(J11:M11)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+        <f t="shared" ref="I11:I16" si="0">IFERROR(IF(SUM(J11:M11)/COUNT(J11:M11)&gt;=10,1,(SUM(J11:M11)/COUNT(J11:M11)/10)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="81">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="51">
         <v>0.2</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" ref="H12:H16" si="0">I12*G12</f>
+        <f t="shared" ref="H12:H16" si="1">I12*G12</f>
         <v>0</v>
       </c>
       <c r="I12" s="22">
-        <f>IFERROR(IF(SUM(J12:M12)/COUNT(J12:M12)&gt;=10,1,(SUM(J12:M12)/COUNT(J12:M12)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="81">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="51">
         <v>0.15</v>
       </c>
       <c r="H13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="22">
-        <f>IFERROR(IF(SUM(J13:M13)/COUNT(J13:M13)&gt;=10,1,(SUM(J13:M13)/COUNT(J13:M13)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="81">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="51">
         <v>0.15</v>
       </c>
       <c r="H14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="22">
-        <f>IFERROR(IF(SUM(J14:M14)/COUNT(J14:M14)&gt;=10,1,(SUM(J14:M14)/COUNT(J14:M14)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="81">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="51">
         <v>0.15</v>
       </c>
       <c r="H15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="22">
-        <f>IFERROR(IF(SUM(J15:M15)/COUNT(J15:M15)&gt;=10,1,(SUM(J15:M15)/COUNT(J15:M15)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="81">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="51">
         <v>0.2</v>
       </c>
       <c r="H16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="22">
-        <f>IFERROR(IF(SUM(J16:M16)/COUNT(J16:M16)&gt;=10,1,(SUM(J16:M16)/COUNT(J16:M16)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="52" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="22">
@@ -2019,11 +1997,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
@@ -2031,6 +2004,11 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2057,32 +2035,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="67">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <f>I18*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2092,16 +2070,16 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2111,16 +2089,16 @@
       <c r="H4" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2130,16 +2108,16 @@
       <c r="H5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2149,24 +2127,24 @@
       <c r="H6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="38" t="e" vm="4">
+      <c r="F7" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H18,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -2175,39 +2153,39 @@
       <c r="C8" s="13">
         <v>0.2</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2237,15 +2215,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="81">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="51">
         <v>0.1</v>
       </c>
       <c r="H11" s="22">
@@ -2257,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="81">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="51">
         <v>0.15</v>
       </c>
       <c r="H12" s="22">
@@ -2283,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="J12" s="28"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="81">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="51">
         <v>0.15</v>
       </c>
       <c r="H13" s="22">
@@ -2309,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="81">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="51">
         <v>0.15</v>
       </c>
       <c r="H14" s="22">
@@ -2335,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="81">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="51">
         <v>0.15</v>
       </c>
       <c r="H15" s="22">
@@ -2361,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="81">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="51">
         <v>0.15</v>
       </c>
       <c r="H16" s="22">
@@ -2387,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="81">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="51">
         <v>0.15</v>
       </c>
       <c r="H17" s="22">
@@ -2413,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="28"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="15" t="s">
@@ -2491,32 +2469,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="67">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <f>I19*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2526,16 +2504,16 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2545,16 +2523,16 @@
       <c r="H4" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2564,16 +2542,16 @@
       <c r="H5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2583,24 +2561,24 @@
       <c r="H6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="38" t="e" vm="4">
+      <c r="F7" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H19,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -2609,39 +2587,39 @@
       <c r="C8" s="13">
         <v>0.15</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2671,15 +2649,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="53">
         <v>0.15</v>
       </c>
       <c r="H11" s="22">
@@ -2690,22 +2668,22 @@
         <f>IFERROR(IF(SUM(J11:P11)/COUNT(J11:P11)&gt;=10,1,(SUM(J11:P11)/COUNT(J11:P11)/10)),0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="85">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="53">
         <v>0.15</v>
       </c>
       <c r="H12" s="22">
@@ -2716,22 +2694,22 @@
         <f t="shared" ref="I12:I18" si="1">IFERROR(IF(SUM(J12:P12)/COUNT(J12:P12)&gt;=10,1,(SUM(J12:P12)/COUNT(J12:P12)/10)),0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="84"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="83"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="85">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="53">
         <v>0.1</v>
       </c>
       <c r="H13" s="22">
@@ -2742,22 +2720,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="83"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="85">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="53">
         <v>0.1</v>
       </c>
       <c r="H14" s="22">
@@ -2768,22 +2746,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="83"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="85">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="53">
         <v>0.125</v>
       </c>
       <c r="H15" s="22">
@@ -2794,22 +2772,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="83"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="85">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="53">
         <v>0.125</v>
       </c>
       <c r="H16" s="22">
@@ -2820,22 +2798,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="83"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="85">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="53">
         <v>0.125</v>
       </c>
       <c r="H17" s="22">
@@ -2846,22 +2824,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="83"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="85">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="53">
         <v>0.125</v>
       </c>
       <c r="H18" s="22">
@@ -2872,14 +2850,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="83"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="52" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="24">
@@ -2912,6 +2890,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A17:F17"/>
@@ -2919,13 +2904,6 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2952,31 +2930,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="67">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <f>I18*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2986,16 +2964,16 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3005,16 +2983,16 @@
       <c r="H4" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3024,16 +3002,16 @@
       <c r="H5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3043,24 +3021,24 @@
       <c r="H6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="38" t="e" vm="4">
+      <c r="F7" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H18,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -3069,39 +3047,39 @@
       <c r="C8" s="13">
         <v>0.1</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3131,14 +3109,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="22">
         <v>0.15</v>
       </c>
@@ -3157,14 +3135,14 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="22">
         <v>0.15</v>
       </c>
@@ -3183,14 +3161,14 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="22">
         <v>0.15</v>
       </c>
@@ -3209,14 +3187,14 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="22">
         <v>0.15</v>
       </c>
@@ -3235,14 +3213,14 @@
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="22">
         <v>0.15</v>
       </c>
@@ -3261,14 +3239,14 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="22">
         <v>0.1</v>
       </c>
@@ -3287,14 +3265,14 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="22">
         <v>0.15</v>
       </c>
@@ -3368,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E61A2-C4DC-479F-A10A-C8D06ABCA3F1}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,31 +3364,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="67">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <f>I18*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3420,14 +3398,14 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3437,14 +3415,14 @@
       <c r="H4" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3454,14 +3432,14 @@
       <c r="H5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3471,20 +3449,20 @@
       <c r="H6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="38" t="e" vm="4">
+      <c r="F7" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H18,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -3493,51 +3471,51 @@
       <c r="C8" s="13">
         <v>0.2</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="40" t="s">
         <v>19</v>
       </c>
       <c r="M10" t="s">
@@ -3545,38 +3523,38 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="61">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="36">
         <f t="shared" ref="H11:H17" si="0">I11*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="61">
-        <f>IFERROR(IF(SUM(J11:K11)/COUNT(J11:K11)&gt;=10,1,(SUM(J11:K11)/COUNT(J11:K11)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="I11" s="36">
+        <f t="shared" ref="I11:I17" si="1">IFERROR(IF(SUM(J11:K11)/COUNT(J11:K11)&gt;=10,1,(SUM(J11:K11)/COUNT(J11:K11)/10)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="22">
         <v>0.1</v>
       </c>
@@ -3585,22 +3563,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="22">
-        <f>IFERROR(IF(SUM(J12:K12)/COUNT(J12:K12)&gt;=10,1,(SUM(J12:K12)/COUNT(J12:K12)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="66"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="41"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="22">
         <v>0.1</v>
       </c>
@@ -3609,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="I13" s="22">
-        <f>IFERROR(IF(SUM(J13:K13)/COUNT(J13:K13)&gt;=10,1,(SUM(J13:K13)/COUNT(J13:K13)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="66"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="41"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="22">
         <v>0.2</v>
       </c>
@@ -3633,22 +3611,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="22">
-        <f>IFERROR(IF(SUM(J14:K14)/COUNT(J14:K14)&gt;=10,1,(SUM(J14:K14)/COUNT(J14:K14)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="66"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="22">
         <v>0.2</v>
       </c>
@@ -3657,46 +3635,46 @@
         <v>0</v>
       </c>
       <c r="I15" s="22">
-        <f>IFERROR(IF(SUM(J15:K15)/COUNT(J15:K15)&gt;=10,1,(SUM(J15:K15)/COUNT(J15:K15)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="66"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="41"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="22">
-        <f>IFERROR(IF(SUM(J16:K16)/COUNT(J16:K16)&gt;=10,1,(SUM(J16:K16)/COUNT(J16:K16)/10)),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="29"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="22">
         <v>0.1</v>
       </c>
@@ -3705,12 +3683,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="22">
-        <f>IFERROR(IF(SUM(J17:K17)/COUNT(J17:K17)&gt;=10,1,(SUM(J17:K17)/COUNT(J17:K17)/10)),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="66"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="15" t="s">
@@ -3718,7 +3696,7 @@
       </c>
       <c r="G18" s="22">
         <f>SUM(G11:G17)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H18" s="25">
         <f>SUM(H11:H17)</f>
@@ -3746,11 +3724,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A15:F15"/>
@@ -3759,6 +3732,11 @@
     <mergeCell ref="F7:H9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3785,31 +3763,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="67">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="68">
         <f>I19*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3819,16 +3797,16 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3838,16 +3816,16 @@
       <c r="H4" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3857,16 +3835,16 @@
       <c r="H5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3876,24 +3854,24 @@
       <c r="H6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="38" t="e" vm="4">
+      <c r="F7" s="62" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H19,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -3902,39 +3880,39 @@
       <c r="C8" s="13">
         <v>0.05</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3964,14 +3942,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="22">
         <v>0.15</v>
       </c>
@@ -3983,21 +3961,21 @@
         <f t="shared" ref="I11:I18" si="1">IFERROR(IF(SUM(J11:N11)/COUNT(J11:N11)&gt;=10,1,(SUM(J11:N11)/COUNT(J11:N11)/10)),0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="22">
         <v>0.15</v>
       </c>
@@ -4009,21 +3987,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="22">
         <v>0.1</v>
       </c>
@@ -4035,21 +4013,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="22">
         <v>0.15</v>
       </c>
@@ -4061,21 +4039,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="22">
         <v>0.1</v>
       </c>
@@ -4087,21 +4065,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="22">
         <v>0.1</v>
       </c>
@@ -4113,21 +4091,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="22">
         <v>0.15</v>
       </c>
@@ -4139,21 +4117,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="22">
         <v>0.1</v>
       </c>
@@ -4165,11 +4143,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F19" s="15" t="s">
@@ -4205,12 +4183,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A15:F15"/>
@@ -4219,6 +4191,12 @@
     <mergeCell ref="F7:H9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4239,318 +4217,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="76"/>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="76"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="76"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="76"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="77"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="46" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="76"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="76"/>
-      <c r="D11" s="73" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="76"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="76"/>
-      <c r="D13" s="73" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="76"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="77"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="76"/>
-      <c r="D17" s="79" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="76"/>
-      <c r="D18" s="79" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="76"/>
-      <c r="D19" s="79" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="76"/>
-      <c r="D20" s="79" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="76"/>
-      <c r="D21" s="79" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="76"/>
-      <c r="D22" s="79" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="49" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="71"/>
-      <c r="D23" s="80" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="76"/>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="76"/>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="78"/>
+      <c r="D26" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="76"/>
-      <c r="D27" s="79" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="76"/>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="76"/>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="77"/>
-      <c r="D30" s="80" t="s">
+      <c r="C30" s="81"/>
+      <c r="D30" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="76"/>
-      <c r="D32" s="79" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="76"/>
-      <c r="D33" s="79" t="s">
+      <c r="C33" s="78"/>
+      <c r="D33" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="76"/>
-      <c r="D34" s="79" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="76"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="76"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="77"/>
-      <c r="D37" s="80" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="76"/>
-      <c r="D39" s="73" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="76"/>
-      <c r="D40" s="73" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="76"/>
-      <c r="D41" s="73" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="76"/>
-      <c r="D42" s="73" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="76"/>
-      <c r="D43" s="73" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="47" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="76"/>
-      <c r="D44" s="73" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="71"/>
-      <c r="D45" s="74" t="s">
+      <c r="C45" s="79"/>
+      <c r="D45" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="70"/>
+      <c r="D46" s="44"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="70"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="70"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="70"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="70"/>
+      <c r="D50" s="44"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="70"/>
+      <c r="D51" s="44"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="70"/>
+      <c r="D52" s="44"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="70"/>
+      <c r="D53" s="44"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="70"/>
+      <c r="D54" s="44"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="70"/>
+      <c r="D55" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4567,6 +4545,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9a2fb8-b6b8-49e0-9782-a1be223650a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bcf2c21e-7c8c-4aa1-a238-b3a814444400" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E784CF8FC968FA419D7090138A1C5306" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="39eb63ef951cee5fc2d9dfe9464e3a65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9a2fb8-b6b8-49e0-9782-a1be223650a2" xmlns:ns3="bcf2c21e-7c8c-4aa1-a238-b3a814444400" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c68340d71e68bd9d23afd1fda0793da" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
@@ -4761,17 +4750,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9a2fb8-b6b8-49e0-9782-a1be223650a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bcf2c21e-7c8c-4aa1-a238-b3a814444400" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4782,6 +4760,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3ABEFA-FE90-43BD-80BC-2C92E2B433F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
+    <ds:schemaRef ds:uri="bcf2c21e-7c8c-4aa1-a238-b3a814444400"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B717C7F-1EC7-4AD7-98AC-1B0BAECCBAD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4800,23 +4795,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3ABEFA-FE90-43BD-80BC-2C92E2B433F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
-    <ds:schemaRef ds:uri="bcf2c21e-7c8c-4aa1-a238-b3a814444400"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A2FB82-F486-424F-AB4A-CA9A356DA4CC}">
   <ds:schemaRefs>

--- a/doc_professor/avaluacio/Plantilla avaluació x persona.xlsx
+++ b/doc_professor/avaluacio/Plantilla avaluació x persona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sofia\Git\1DAW_ED_smarti\doc_professor\avaluacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED556C42-F743-492C-BEE9-D50406FF1149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FAC45-F940-4FBC-9DBF-8593F33FF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3180" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35805" yWindow="-2550" windowWidth="19740" windowHeight="13710" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MÒDUL" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="RA-5" sheetId="7" r:id="rId6"/>
     <sheet name="RA-6" sheetId="8" r:id="rId7"/>
     <sheet name="RAs" sheetId="11" r:id="rId8"/>
+    <sheet name="Evidències" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -76,8 +77,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="5">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -90,12 +98,15 @@
     <bk>
       <rc t="1" v="3"/>
     </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="159">
   <si>
     <t>Nota Mòdul</t>
   </si>
@@ -367,6 +378,213 @@
   </si>
   <si>
     <t>RA6. Genera diagrames de comportament valorant la seua importància en el desenvolupament d’aplicacions i emprant les ferramentes disponibles en l’entorn.</t>
+  </si>
+  <si>
+    <t>CRITERI</t>
+  </si>
+  <si>
+    <t>INSUFICIENT</t>
+  </si>
+  <si>
+    <t>(1-4)</t>
+  </si>
+  <si>
+    <t>SUFICIENT</t>
+  </si>
+  <si>
+    <t>(5-6)</t>
+  </si>
+  <si>
+    <t>NOTABLE</t>
+  </si>
+  <si>
+    <t>(7-8)</t>
+  </si>
+  <si>
+    <t>EXCEL.LENT</t>
+  </si>
+  <si>
+    <t>(9-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Identificació de conceptes bàsics de Orientació a Objectes </t>
+  </si>
+  <si>
+    <t>No s’identifiquen els conceptes bàsics o hi ha errors greus.</t>
+  </si>
+  <si>
+    <t>Es reconeixen alguns conceptes bàsics, però amb mancances o confusions.</t>
+  </si>
+  <si>
+    <t>Es mostren coneixements clars dels conceptes bàsics, amb alguna imprecisió menor.</t>
+  </si>
+  <si>
+    <t>Es demostra una comprensió sòlida i completa dels conceptes bàsics de la POO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Interpretació del significat dels diagrames </t>
+  </si>
+  <si>
+    <t>No s’interpreta correctament el diagrama o es fa de manera molt superficial.</t>
+  </si>
+  <si>
+    <t>S’interpreta parcialment el significat, amb algunes errades o omissions.</t>
+  </si>
+  <si>
+    <t>Bona interpretació del diagrama, amb explicacions clares i coherents.</t>
+  </si>
+  <si>
+    <t>Interpretació profunda i precisa, amb capacitat d’anàlisi i justificació.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Traçat del diagrama a partir d’especificacions </t>
+  </si>
+  <si>
+    <t>El diagrama no reflecteix les especificacions o conté errors greus.</t>
+  </si>
+  <si>
+    <t>El diagrama reflecteix parcialment les especificacions, amb algunes incoherències.</t>
+  </si>
+  <si>
+    <t>El diagrama és coherent amb les especificacions, amb detalls ben representats.</t>
+  </si>
+  <si>
+    <t>El diagrama és complet, flexible i fidel a les especificacions, anticipant possibles canvis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Claredat, coherència i correcció del model </t>
+  </si>
+  <si>
+    <t>El model és confús, desorganitzat o conté errors conceptuals.</t>
+  </si>
+  <si>
+    <t>El model és comprensible però amb problemes de coherència o presentació.</t>
+  </si>
+  <si>
+    <t>El model és clar, coherent i ben estructurat, amb pocs errors.</t>
+  </si>
+  <si>
+    <t>El model destaca per la seua claredat, coherència i correcció formal i conceptual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Correcta documentació del model </t>
+  </si>
+  <si>
+    <t>La documentació és inexistent o molt deficient, amb informació incompleta o errònia.</t>
+  </si>
+  <si>
+    <t>La documentació és bàsica i conté informació rellevant però amb algunes mancances.</t>
+  </si>
+  <si>
+    <t>La documentació és completa i clara, amb informació detallada i ben organitzada.</t>
+  </si>
+  <si>
+    <t>La documentació és excel·lent, amb informació exhaustiva, ben estructurada i fàcil de seguir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Presentació del model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La presentació és deficient, l’explicació és incoherent o inexistent. </t>
+  </si>
+  <si>
+    <t>La presentació és bàsica i conté informació rellevant però amb algunes mancances.</t>
+  </si>
+  <si>
+    <t>La presentació és completa i clara, amb informació detallada i ben organitzada.</t>
+  </si>
+  <si>
+    <t>La presentació és excel·lent, dinàmica, amb informació exhaustiva, ben estructurada i fàcil de seguir.</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Fase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA.5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA. a, b, c, d, e. </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ev. Fase 3</t>
+  </si>
+  <si>
+    <t>Ev. Fase 4</t>
+  </si>
+  <si>
+    <t>Ev. Empresa</t>
+  </si>
+  <si>
+    <t>1. Qualitat del codi generat</t>
+  </si>
+  <si>
+    <t>El codi és incomplet, amb molts errors i no funciona.</t>
+  </si>
+  <si>
+    <t>El codi funciona parcialment, amb errors menors o estructura poc clara.</t>
+  </si>
+  <si>
+    <t>El codi és funcional, ben estructurat i amb pocs errors.</t>
+  </si>
+  <si>
+    <t>El codi és complet, funcional, ben estructurat i segueix bones pràctiques.</t>
+  </si>
+  <si>
+    <t>2. Anàlisi crítica del codi generat</t>
+  </si>
+  <si>
+    <t>No hi ha anàlisi o és molt superficial.</t>
+  </si>
+  <si>
+    <t>L’anàlisi identifica alguns aspectes però sense profunditat.</t>
+  </si>
+  <si>
+    <t>L’anàlisi és clara, amb observacions rellevants.</t>
+  </si>
+  <si>
+    <t>L’anàlisi és profunda, reflexiva i proposa millores concretes.</t>
+  </si>
+  <si>
+    <t>3. Documentació del procés</t>
+  </si>
+  <si>
+    <t>El document és desorganitzat o incomplet.</t>
+  </si>
+  <si>
+    <t>El document descriu el procés però amb poca claredat o detall.</t>
+  </si>
+  <si>
+    <t>El document està ben estructurat i explica el procés amb exemples.</t>
+  </si>
+  <si>
+    <t>El document és molt complet, clar, amb captures, exemples i reflexió.</t>
+  </si>
+  <si>
+    <t>4. Reflexió final i valoració de l’experiència</t>
+  </si>
+  <si>
+    <t>No hi ha reflexió o és molt bàsica.</t>
+  </si>
+  <si>
+    <t>Reflexió breu, amb idees generals.</t>
+  </si>
+  <si>
+    <t>Reflexió ben estructurada, amb valoracions personals.</t>
+  </si>
+  <si>
+    <t>Reflexió profunda, crítica i amb connexions amb l’aprenentatge i la pràctica.</t>
+  </si>
+  <si>
+    <t>Fase 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA. f. </t>
   </si>
 </sst>
 </file>
@@ -376,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +670,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +770,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF215E99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -757,12 +1031,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -893,6 +1257,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,6 +1296,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -944,15 +1320,6 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -976,6 +1343,91 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1036,7 +1488,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1048,6 +1500,10 @@
   <rv s="0">
     <v>2</v>
     <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>4</v>
   </rv>
   <rv s="0">
     <v>0</v>
@@ -1407,17 +1863,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+      <c r="A2" s="59">
         <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
+        <v>0.92857142857142849</v>
+      </c>
+      <c r="B2" s="60"/>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1429,8 +1885,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
@@ -1442,8 +1898,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
@@ -1455,8 +1911,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
@@ -1468,37 +1924,37 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="62" t="e" vm="4">
+      <c r="F6" s="63" t="e" vm="4">
         <f>_xlfn.XLOOKUP(H16,G3:G5,H3:H5,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1507,14 +1963,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="8">
         <v>0.1</v>
       </c>
@@ -1524,14 +1980,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="8">
         <v>0.15</v>
       </c>
@@ -1541,14 +1997,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="8">
         <v>0.2</v>
       </c>
@@ -1558,14 +2014,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="8">
         <v>0.15</v>
       </c>
@@ -1575,32 +2031,32 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="8">
         <f>'RA-5'!C$8</f>
         <v>0.2</v>
       </c>
       <c r="H14" s="17">
         <f>'RA-5'!D$3</f>
-        <v>0</v>
+        <v>5.5714285714285712</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="8">
         <v>0.2</v>
       </c>
@@ -1616,7 +2072,7 @@
       </c>
       <c r="H16" s="17">
         <f>SUM(H10:H15)/COUNT(H10:H15)</f>
-        <v>0</v>
+        <v>0.92857142857142849</v>
       </c>
     </row>
   </sheetData>
@@ -1658,32 +2114,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="67">
+      <c r="C3" s="71">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="72">
         <f>I17*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
@@ -1699,9 +2155,9 @@
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1714,9 +2170,9 @@
       <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1732,9 +2188,9 @@
       <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
@@ -1750,12 +2206,12 @@
       <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="62" t="e" vm="4">
+      <c r="F7" s="63" t="e" vm="5">
         <f>_xlfn.XLOOKUP(H17,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -1768,9 +2224,9 @@
       <c r="C8" s="13">
         <v>0.1</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="30" t="s">
         <v>14</v>
       </c>
@@ -1781,28 +2237,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1829,14 +2285,14 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="51">
         <v>0.15</v>
       </c>
@@ -1854,14 +2310,14 @@
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="51">
         <v>0.2</v>
       </c>
@@ -1879,14 +2335,14 @@
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="51">
         <v>0.15</v>
       </c>
@@ -1904,14 +2360,14 @@
       <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="51">
         <v>0.15</v>
       </c>
@@ -1929,14 +2385,14 @@
       <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="51">
         <v>0.15</v>
       </c>
@@ -1954,14 +2410,14 @@
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51">
         <v>0.2</v>
       </c>
@@ -1997,6 +2453,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
@@ -2004,11 +2465,6 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2035,32 +2491,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="67">
+      <c r="C3" s="71">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="72">
         <f>I18*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2077,9 +2533,9 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2096,9 +2552,9 @@
       <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2115,9 +2571,9 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2134,12 +2590,12 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="62" t="e" vm="4">
+      <c r="F7" s="63" t="e" vm="5">
         <f>_xlfn.XLOOKUP(H18,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -2153,9 +2609,9 @@
       <c r="C8" s="13">
         <v>0.2</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -2163,14 +2619,14 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -2178,14 +2634,14 @@
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2215,14 +2671,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="51">
         <v>0.1</v>
       </c>
@@ -2241,14 +2697,14 @@
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="51">
         <v>0.15</v>
       </c>
@@ -2267,14 +2723,14 @@
       <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="51">
         <v>0.15</v>
       </c>
@@ -2293,14 +2749,14 @@
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="51">
         <v>0.15</v>
       </c>
@@ -2319,14 +2775,14 @@
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="51">
         <v>0.15</v>
       </c>
@@ -2345,14 +2801,14 @@
       <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51">
         <v>0.15</v>
       </c>
@@ -2371,14 +2827,14 @@
       <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="51">
         <v>0.15</v>
       </c>
@@ -2469,32 +2925,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="67">
+      <c r="C3" s="71">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="72">
         <f>I19*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2511,9 +2967,9 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2530,9 +2986,9 @@
       <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2549,9 +3005,9 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2568,12 +3024,12 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="62" t="e" vm="4">
+      <c r="F7" s="63" t="e" vm="5">
         <f>_xlfn.XLOOKUP(H19,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -2587,9 +3043,9 @@
       <c r="C8" s="13">
         <v>0.15</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -2597,14 +3053,14 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -2612,14 +3068,14 @@
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2649,14 +3105,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="53">
         <v>0.15</v>
       </c>
@@ -2675,14 +3131,14 @@
       <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="53">
         <v>0.15</v>
       </c>
@@ -2701,14 +3157,14 @@
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="53">
         <v>0.1</v>
       </c>
@@ -2727,14 +3183,14 @@
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="53">
         <v>0.1</v>
       </c>
@@ -2753,14 +3209,14 @@
       <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="53">
         <v>0.125</v>
       </c>
@@ -2779,14 +3235,14 @@
       <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="53">
         <v>0.125</v>
       </c>
@@ -2805,14 +3261,14 @@
       <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="53">
         <v>0.125</v>
       </c>
@@ -2831,14 +3287,14 @@
       <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="53">
         <v>0.125</v>
       </c>
@@ -2890,6 +3346,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:E6"/>
@@ -2897,13 +3360,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2930,31 +3386,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="67">
+      <c r="C3" s="71">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="72">
         <f>I18*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2971,9 +3427,9 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2990,9 +3446,9 @@
       <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3009,9 +3465,9 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3028,12 +3484,12 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="62" t="e" vm="4">
+      <c r="F7" s="63" t="e" vm="5">
         <f>_xlfn.XLOOKUP(H18,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -3047,9 +3503,9 @@
       <c r="C8" s="13">
         <v>0.1</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -3057,14 +3513,14 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -3072,14 +3528,14 @@
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3109,14 +3565,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="22">
         <v>0.15</v>
       </c>
@@ -3135,14 +3591,14 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="22">
         <v>0.15</v>
       </c>
@@ -3161,14 +3617,14 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="22">
         <v>0.15</v>
       </c>
@@ -3187,14 +3643,14 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="22">
         <v>0.15</v>
       </c>
@@ -3213,14 +3669,14 @@
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="22">
         <v>0.15</v>
       </c>
@@ -3239,14 +3695,14 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="22">
         <v>0.1</v>
       </c>
@@ -3265,14 +3721,14 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="22">
         <v>0.15</v>
       </c>
@@ -3346,8 +3802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E61A2-C4DC-479F-A10A-C8D06ABCA3F1}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3364,31 +3820,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
       <c r="L1" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="67">
+      <c r="C3" s="71">
         <f>D3*C8</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="68">
+        <v>1.1142857142857143</v>
+      </c>
+      <c r="D3" s="72">
         <f>I18*10</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="69"/>
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3403,9 +3859,9 @@
       <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3420,9 +3876,9 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3437,9 +3893,9 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3454,12 +3910,12 @@
       <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="62" t="e" vm="4">
+      <c r="F7" s="63" t="e" vm="5">
         <f>_xlfn.XLOOKUP(H18,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -3471,35 +3927,35 @@
       <c r="C8" s="13">
         <v>0.2</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="38" t="s">
         <v>7</v>
       </c>
@@ -3510,171 +3966,189 @@
         <v>16</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="36">
         <v>0.1</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" ref="H11:H17" si="0">I11*G11</f>
-        <v>0</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="I11" s="36">
         <f t="shared" ref="I11:I17" si="1">IFERROR(IF(SUM(J11:K11)/COUNT(J11:K11)&gt;=10,1,(SUM(J11:K11)/COUNT(J11:K11)/10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="42"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J11" s="42">
+        <f>Evidències!$H$11</f>
+        <v>6.5500000000000007</v>
+      </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="22">
         <v>0.1</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="41"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J12" s="42">
+        <f>Evidències!$H$11</f>
+        <v>6.5500000000000007</v>
+      </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="22">
         <v>0.1</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="41"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J13" s="42">
+        <f>Evidències!$H$11</f>
+        <v>6.5500000000000007</v>
+      </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="22">
         <v>0.2</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="41"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J14" s="42">
+        <f>Evidències!$H$11</f>
+        <v>6.5500000000000007</v>
+      </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="22">
         <v>0.2</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="41"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J15" s="42">
+        <f>Evidències!$H$11</f>
+        <v>6.5500000000000007</v>
+      </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="22">
         <v>0.2</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="J16" s="29"/>
-      <c r="K16" s="41"/>
+      <c r="K16" s="41">
+        <f>Evidències!H21</f>
+        <v>6.25</v>
+      </c>
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="22">
         <v>0.1</v>
       </c>
@@ -3700,11 +4174,11 @@
       </c>
       <c r="H18" s="25">
         <f>SUM(H11:H17)</f>
-        <v>0</v>
+        <v>0.58350000000000002</v>
       </c>
       <c r="I18" s="26">
         <f>SUM(I11:I17)/COUNT(I11:I17)</f>
-        <v>0</v>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -3724,6 +4198,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A15:F15"/>
@@ -3732,11 +4211,6 @@
     <mergeCell ref="F7:H9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3746,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531DC8B5-C3E6-4F46-8F6B-59E20A788859}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3763,31 +4237,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="67">
+      <c r="C3" s="71">
         <f>D3*C8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="72">
         <f>I19*10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3804,9 +4278,9 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3823,9 +4297,9 @@
       <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
@@ -3842,9 +4316,9 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3861,12 +4335,12 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="62" t="e" vm="4">
+      <c r="F7" s="63" t="e" vm="5">
         <f>_xlfn.XLOOKUP(H19,G4:G6,H4:H6,,-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -3880,9 +4354,9 @@
       <c r="C8" s="13">
         <v>0.05</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -3890,14 +4364,14 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -3905,14 +4379,14 @@
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3942,14 +4416,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="22">
         <v>0.15</v>
       </c>
@@ -3968,14 +4442,14 @@
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="22">
         <v>0.15</v>
       </c>
@@ -3994,14 +4468,14 @@
       <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="22">
         <v>0.1</v>
       </c>
@@ -4020,14 +4494,14 @@
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="22">
         <v>0.15</v>
       </c>
@@ -4046,14 +4520,14 @@
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="22">
         <v>0.1</v>
       </c>
@@ -4072,14 +4546,14 @@
       <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="22">
         <v>0.1</v>
       </c>
@@ -4098,14 +4572,14 @@
       <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="22">
         <v>0.15</v>
       </c>
@@ -4124,14 +4598,14 @@
       <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="22">
         <v>0.1</v>
       </c>
@@ -4183,6 +4657,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A15:F15"/>
@@ -4191,12 +4671,6 @@
     <mergeCell ref="F7:H9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4206,7 +4680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B6EC0-1D60-427E-8479-269F0B677FB3}">
   <dimension ref="C1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D38" sqref="D38:D45"/>
     </sheetView>
   </sheetViews>
@@ -4217,10 +4691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="80"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="43" t="s">
@@ -4231,7 +4705,7 @@
       </c>
     </row>
     <row r="3" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="46" t="s">
@@ -4239,37 +4713,37 @@
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="78"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="78"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="78"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="78"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="81"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="78" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="46" t="s">
@@ -4277,43 +4751,43 @@
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="78" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="48" t="s">
@@ -4321,49 +4795,49 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="78"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="49" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="79"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="78" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="48" t="s">
@@ -4371,43 +4845,43 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="78"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="78"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="78"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="78"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="78"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="78" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -4415,43 +4889,43 @@
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="78"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="78"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="78"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="78"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="78"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="78" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="46" t="s">
@@ -4459,43 +4933,43 @@
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="78"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="78"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="78"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="78"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="78"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="47" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="78"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="79"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="45" t="s">
         <v>87</v>
       </c>
@@ -4544,18 +5018,420 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9a2fb8-b6b8-49e0-9782-a1be223650a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bcf2c21e-7c8c-4aa1-a238-b3a814444400" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA255DE2-7EA2-4059-9231-994CC7C00F4E}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="91"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="89"/>
+      <c r="C4" s="93">
+        <f>SUM(C5:C10)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="90"/>
+    </row>
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A6" s="94"/>
+      <c r="B6" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" s="94"/>
+      <c r="B7" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A9" s="94"/>
+      <c r="B9" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="95"/>
+      <c r="B10" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="97">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103">
+        <f>H5*C5+H6*C6+H7*C7+H8*C8+H9*C9+H10*C10</f>
+        <v>6.5500000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105">
+        <f>SUM(C17:C20)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="90"/>
+    </row>
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A17" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="108"/>
+      <c r="B18" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
+      <c r="B19" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="109"/>
+      <c r="B20" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103">
+        <f>H17*C17+H18*C18+H19*C19+H20*C20</f>
+        <v>6.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E784CF8FC968FA419D7090138A1C5306" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="39eb63ef951cee5fc2d9dfe9464e3a65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9a2fb8-b6b8-49e0-9782-a1be223650a2" xmlns:ns3="bcf2c21e-7c8c-4aa1-a238-b3a814444400" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c68340d71e68bd9d23afd1fda0793da" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
@@ -4750,6 +5626,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9a2fb8-b6b8-49e0-9782-a1be223650a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bcf2c21e-7c8c-4aa1-a238-b3a814444400" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4760,23 +5647,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3ABEFA-FE90-43BD-80BC-2C92E2B433F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
-    <ds:schemaRef ds:uri="bcf2c21e-7c8c-4aa1-a238-b3a814444400"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B717C7F-1EC7-4AD7-98AC-1B0BAECCBAD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4795,6 +5665,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3ABEFA-FE90-43BD-80BC-2C92E2B433F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
+    <ds:schemaRef ds:uri="bcf2c21e-7c8c-4aa1-a238-b3a814444400"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A2FB82-F486-424F-AB4A-CA9A356DA4CC}">
   <ds:schemaRefs>
